--- a/data/trans_orig/Q5410A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CEB298F-D391-48D8-A096-4841A6574374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6090D36F-8DEE-48FF-8091-0E4CD955D86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AECF31DE-653E-4EBA-A7C5-546E4FB3AB33}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9EE1EEDF-EA39-4B3B-9ABC-87B1C959C764}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -104,55 +104,55 @@
     <t>15,27%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -167,73 +167,73 @@
     <t>4,72%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7439081A-D38A-4597-AEA4-05A679C6182B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EA3A4A-6DA8-4D6D-9E40-41B383178769}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5410A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6090D36F-8DEE-48FF-8091-0E4CD955D86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FE3442F-8857-44F0-A721-42402B64B9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9EE1EEDF-EA39-4B3B-9ABC-87B1C959C764}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D143FA08-1E32-42CC-B272-A0B939B122FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EA3A4A-6DA8-4D6D-9E40-41B383178769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DDE395-D7A7-45A3-B166-BCD468EA3BD5}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5410A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FE3442F-8857-44F0-A721-42402B64B9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A982FAB8-9F54-4F1E-92E8-F3471DF84F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D143FA08-1E32-42CC-B272-A0B939B122FE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73281FB8-89C4-4C89-9BCD-3FF8F5EDB68D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -104,55 +104,55 @@
     <t>15,27%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -167,73 +167,73 @@
     <t>4,72%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DDE395-D7A7-45A3-B166-BCD468EA3BD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFEBD29-9A80-4901-82D7-176B2A01100C}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5410A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A982FAB8-9F54-4F1E-92E8-F3471DF84F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FC68ADA-DA60-4BB1-9EDA-18EF7D29E6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73281FB8-89C4-4C89-9BCD-3FF8F5EDB68D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E41CC759-C291-42A6-A451-EC48F7AFFE71}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="142">
   <si>
     <t>Población según si necesita  enema o supositorio y es capaz de utilizarlos en 2023 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No soy capaz de usarlo</t>
@@ -86,157 +86,379 @@
     <t>Sí, por sí solo/a</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -651,8 +873,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFEBD29-9A80-4901-82D7-176B2A01100C}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3614CD-37A3-46E4-8029-A2EC87F592B0}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2129,10 +2351,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>2428</v>
+        <v>1151</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>21</v>
@@ -2144,34 +2366,34 @@
         <v>23</v>
       </c>
       <c r="H34" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>8876</v>
+        <v>442</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1593</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="7">
-        <v>21</v>
-      </c>
-      <c r="N34" s="7">
-        <v>11303</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,49 +2402,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D35" s="7">
-        <v>6506</v>
+        <v>3018</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>6</v>
+      </c>
+      <c r="I35" s="7">
+        <v>2823</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="7">
-        <v>28</v>
-      </c>
-      <c r="I35" s="7">
-        <v>14767</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>10</v>
+      </c>
+      <c r="N35" s="7">
+        <v>5841</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M35" s="7">
+      <c r="P35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="N35" s="7">
-        <v>21272</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,43 +2459,43 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="7">
-        <v>3</v>
-      </c>
-      <c r="I36" s="7">
-        <v>2374</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="7">
-        <v>3</v>
-      </c>
-      <c r="N36" s="7">
-        <v>2374</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,49 +2504,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>2786</v>
+        <v>625</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H37" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>13753</v>
+        <v>913</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M37" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="N37" s="7">
-        <v>16539</v>
+        <v>1538</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,49 +2555,49 @@
         <v>15</v>
       </c>
       <c r="C38" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>4181</v>
+        <v>1413</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>10506</v>
+        <v>353</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M38" s="7">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="N38" s="7">
-        <v>14686</v>
+        <v>1766</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,102 +2606,102 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D39" s="7">
-        <v>15900</v>
+        <v>6207</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="I39" s="7">
-        <v>50275</v>
+        <v>4531</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="N39" s="7">
-        <v>66174</v>
+        <v>10738</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" s="7">
-        <v>2428</v>
+        <v>1154</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H40" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="7">
-        <v>8876</v>
+        <v>7451</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M40" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N40" s="7">
-        <v>11303</v>
+        <v>8605</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,49 +2710,49 @@
         <v>12</v>
       </c>
       <c r="C41" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D41" s="7">
-        <v>6506</v>
+        <v>2940</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="H41" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I41" s="7">
-        <v>14767</v>
+        <v>10338</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="M41" s="7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N41" s="7">
-        <v>21272</v>
+        <v>13278</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,43 +2767,43 @@
         <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
       </c>
       <c r="I42" s="7">
-        <v>2374</v>
+        <v>1964</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
       </c>
       <c r="N42" s="7">
-        <v>2374</v>
+        <v>1964</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,49 +2812,49 @@
         <v>14</v>
       </c>
       <c r="C43" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="7">
-        <v>2786</v>
+        <v>1726</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="H43" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="7">
-        <v>13753</v>
+        <v>9498</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="M43" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N43" s="7">
-        <v>16539</v>
+        <v>11224</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,49 +2863,49 @@
         <v>15</v>
       </c>
       <c r="C44" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D44" s="7">
-        <v>4181</v>
+        <v>2455</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="H44" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44" s="7">
-        <v>10506</v>
+        <v>8769</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M44" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N44" s="7">
-        <v>14686</v>
+        <v>11224</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,63 +2914,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>15</v>
+      </c>
+      <c r="D45" s="7">
+        <v>8275</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="7">
+        <v>73</v>
+      </c>
+      <c r="I45" s="7">
+        <v>38020</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M45" s="7">
+        <v>88</v>
+      </c>
+      <c r="N45" s="7">
+        <v>46295</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>5</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2306</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H46" s="7">
+        <v>16</v>
+      </c>
+      <c r="I46" s="7">
+        <v>7893</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M46" s="7">
+        <v>21</v>
+      </c>
+      <c r="N46" s="7">
+        <v>10198</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="7">
+        <v>9</v>
+      </c>
+      <c r="D47" s="7">
+        <v>5958</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="7">
+        <v>28</v>
+      </c>
+      <c r="I47" s="7">
+        <v>13161</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M47" s="7">
+        <v>37</v>
+      </c>
+      <c r="N47" s="7">
+        <v>19119</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" s="7">
+        <v>3</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1964</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M48" s="7">
+        <v>3</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1964</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="7">
+        <v>4</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2351</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="7">
+        <v>18</v>
+      </c>
+      <c r="I49" s="7">
+        <v>10411</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M49" s="7">
+        <v>22</v>
+      </c>
+      <c r="N49" s="7">
+        <v>12762</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="7">
+        <v>7</v>
+      </c>
+      <c r="D50" s="7">
+        <v>3868</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" s="7">
+        <v>18</v>
+      </c>
+      <c r="I50" s="7">
+        <v>9123</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M50" s="7">
         <v>25</v>
       </c>
-      <c r="D45" s="7">
-        <v>15900</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="N50" s="7">
+        <v>12991</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
+        <v>25</v>
+      </c>
+      <c r="D51" s="7">
+        <v>14483</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="7">
         <v>83</v>
       </c>
-      <c r="I45" s="7">
-        <v>50275</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>42551</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="7">
         <v>108</v>
       </c>
-      <c r="N45" s="7">
-        <v>66174</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>67</v>
+      <c r="N51" s="7">
+        <v>57033</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
